--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>934229.6674031647</v>
+        <v>931850.7431981609</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>64.43856447801488</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>257.3061662477267</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>66.3742236385413</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>155.5598945400495</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>299.5215209693916</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>97.32228826427132</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>220.7405556449977</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>233.3257147283068</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>75.4571321610379</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>20.92365879439055</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>32.79376842490291</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>50.22645041209587</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1528,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182137</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,16 +1585,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>69.5249619048551</v>
+        <v>170.8079800483189</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>135.0098274972359</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,13 +1822,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>109.9946371007651</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>74.85100034926981</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>136.4226250355559</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986324</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>131.0636721089658</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.405450327292</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>23.38834319861184</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,10 +2485,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>212.5602966632231</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>41.02686156550307</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012055</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>67.9789698179101</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699766</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>212.89882061057</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520995</v>
       </c>
     </row>
     <row r="35">
@@ -3430,19 +3430,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>100.0416311957212</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833636</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>41.02686156549768</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3898,16 +3898,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>35.41770597126623</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4141,16 +4141,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1896.503151925172</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C2" t="n">
-        <v>1527.54063498476</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="D2" t="n">
-        <v>1169.27493637801</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E2" t="n">
-        <v>783.4866837797654</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,16 +4340,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2656.568750250373</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2283.102991989294</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2283.102991989294</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,31 +4425,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>853.8423354762236</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>853.8423354762236</v>
+        <v>763.7557992120744</v>
       </c>
       <c r="T4" t="n">
-        <v>853.8423354762236</v>
+        <v>541.9891837816004</v>
       </c>
       <c r="U4" t="n">
-        <v>564.7394686018672</v>
+        <v>541.9891837816004</v>
       </c>
       <c r="V4" t="n">
-        <v>310.0549803959803</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="W4" t="n">
-        <v>310.0549803959803</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X4" t="n">
-        <v>310.0549803959803</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1320.35562273557</v>
+        <v>1892.963660013482</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,7 +4565,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4577,7 +4577,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3227.300479928088</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3021.322732312311</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2767.792255586147</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2436.729368242576</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W5" t="n">
-        <v>2083.960712972462</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X5" t="n">
-        <v>1710.494954711382</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y5" t="n">
-        <v>1320.35562273557</v>
+        <v>1892.963660013482</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
         <v>1109.759191501176</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C7" t="n">
         <v>66.51211643218342</v>
@@ -4723,52 +4723,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>699.1203903877109</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U7" t="n">
-        <v>476.1501321604405</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="V7" t="n">
-        <v>476.1501321604405</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="W7" t="n">
-        <v>476.1501321604405</v>
+        <v>463.4378502581077</v>
       </c>
       <c r="X7" t="n">
-        <v>248.1605812624231</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="Y7" t="n">
-        <v>248.1605812624231</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943748</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1308.370295943748</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1308.370295943748</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2403.60903256753</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2030.14327430645</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4875,25 +4875,25 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>331.5406302391191</v>
+        <v>246.5270825411068</v>
       </c>
       <c r="C10" t="n">
-        <v>331.5406302391191</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="D10" t="n">
-        <v>331.5406302391191</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>780.3227602806666</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T10" t="n">
-        <v>780.3227602806666</v>
+        <v>729.201121645011</v>
       </c>
       <c r="U10" t="n">
-        <v>780.3227602806666</v>
+        <v>729.201121645011</v>
       </c>
       <c r="V10" t="n">
-        <v>780.3227602806666</v>
+        <v>474.5166334391241</v>
       </c>
       <c r="W10" t="n">
-        <v>780.3227602806666</v>
+        <v>474.5166334391241</v>
       </c>
       <c r="X10" t="n">
-        <v>552.3332093826492</v>
+        <v>246.5270825411068</v>
       </c>
       <c r="Y10" t="n">
-        <v>331.5406302391191</v>
+        <v>246.5270825411068</v>
       </c>
     </row>
     <row r="11">
@@ -5024,10 +5024,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5039,19 +5039,19 @@
         <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>412.8694853882158</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C13" t="n">
-        <v>243.9333024603089</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5224,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S13" t="n">
-        <v>1440.555541309953</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T13" t="n">
-        <v>1220.954076332894</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U13" t="n">
-        <v>931.8788496770917</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="V13" t="n">
-        <v>931.8788496770917</v>
+        <v>494.3395271261094</v>
       </c>
       <c r="W13" t="n">
-        <v>861.6516154297633</v>
+        <v>321.8062139459892</v>
       </c>
       <c r="X13" t="n">
-        <v>633.662064531746</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="Y13" t="n">
-        <v>412.8694853882158</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
     <row r="14">
@@ -5267,10 +5267,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5282,13 +5282,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>453.9887606863813</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C16" t="n">
-        <v>453.9887606863813</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D16" t="n">
-        <v>453.9887606863813</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E16" t="n">
-        <v>453.9887606863813</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>453.9887606863813</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>1440.555541309953</v>
       </c>
       <c r="R16" t="n">
-        <v>1373.509837562355</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S16" t="n">
-        <v>1190.65500321726</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T16" t="n">
-        <v>971.0535382402009</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U16" t="n">
-        <v>681.9783115843986</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="V16" t="n">
-        <v>681.9783115843986</v>
+        <v>494.3395271261094</v>
       </c>
       <c r="W16" t="n">
-        <v>681.9783115843986</v>
+        <v>204.9223570891488</v>
       </c>
       <c r="X16" t="n">
-        <v>453.9887606863813</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="Y16" t="n">
-        <v>453.9887606863813</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>319.5403735201761</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C19" t="n">
-        <v>319.5403735201761</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D19" t="n">
-        <v>169.4237341078404</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K19" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L19" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M19" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N19" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O19" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P19" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q19" t="n">
         <v>1440.555541309953</v>
       </c>
       <c r="R19" t="n">
-        <v>1373.509837562356</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S19" t="n">
-        <v>1373.509837562356</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T19" t="n">
-        <v>1373.509837562356</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U19" t="n">
-        <v>1084.434610906554</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="V19" t="n">
-        <v>829.7501227006668</v>
+        <v>611.2233839829498</v>
       </c>
       <c r="W19" t="n">
-        <v>540.3329526637062</v>
+        <v>321.8062139459892</v>
       </c>
       <c r="X19" t="n">
-        <v>540.3329526637062</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="Y19" t="n">
-        <v>319.5403735201761</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
@@ -5747,28 +5747,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852254</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273902</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.28814409505</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1815.886107649656</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2367.795837888943</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>727.9786782557277</v>
+        <v>395.1403935606972</v>
       </c>
       <c r="C22" t="n">
-        <v>559.0424953278208</v>
+        <v>226.2042106327858</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>226.2042106327858</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797186</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>317.0287368244602</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>707.4273310004003</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1129.437033731435</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1546.846905391443</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>1916.376186100428</v>
       </c>
       <c r="P22" t="n">
-        <v>2209.05164167397</v>
+        <v>2209.051641673987</v>
       </c>
       <c r="Q22" t="n">
-        <v>2328.249876400869</v>
+        <v>2328.249876400886</v>
       </c>
       <c r="R22" t="n">
-        <v>2328.249876400869</v>
+        <v>2261.204172653289</v>
       </c>
       <c r="S22" t="n">
-        <v>2145.395042055774</v>
+        <v>2078.349338308193</v>
       </c>
       <c r="T22" t="n">
-        <v>1925.793577078711</v>
+        <v>1858.747873331134</v>
       </c>
       <c r="U22" t="n">
-        <v>1636.718350422909</v>
+        <v>1569.672646675332</v>
       </c>
       <c r="V22" t="n">
-        <v>1382.033862217022</v>
+        <v>1314.988158469445</v>
       </c>
       <c r="W22" t="n">
-        <v>1358.409273127515</v>
+        <v>1025.570988432484</v>
       </c>
       <c r="X22" t="n">
-        <v>1130.419722229497</v>
+        <v>797.5814375344671</v>
       </c>
       <c r="Y22" t="n">
-        <v>909.6271430859674</v>
+        <v>576.788858390937</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1652.717886400351</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6260,7 +6260,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L27" t="n">
-        <v>746.8882603249857</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.309900062227</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>747.3737171343201</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>597.2570777219844</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>449.3439841395913</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>302.4540366416809</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>135.2579373565608</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>135.2579373565608</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832664</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176862</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970975</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035997</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1097.958364892467</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,46 +6449,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.3099000622302</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6625,46 +6625,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797786</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832667</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832667</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176865</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.157664970978</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1546.740494934017</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1318.750944036</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1097.95836489247</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400664</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121596</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703062</v>
       </c>
     </row>
     <row r="35">
@@ -6923,25 +6923,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -7023,19 +7023,19 @@
         <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253734</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7193,28 +7193,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.3099000622216</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C40" t="n">
-        <v>747.3737171343147</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D40" t="n">
-        <v>597.2570777219789</v>
+        <v>194.8007783998268</v>
       </c>
       <c r="E40" t="n">
-        <v>449.3439841395858</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>302.4540366416754</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>135.2579373565554</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>135.2579373565554</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038298</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797699</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832658</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832658</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.842153176856</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V40" t="n">
-        <v>1836.157664970969</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W40" t="n">
-        <v>1546.740494934009</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X40" t="n">
-        <v>1318.750944035991</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y40" t="n">
-        <v>1097.958364892461</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="41">
@@ -7394,25 +7394,25 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7430,16 +7430,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466572</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>427.7414352191925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>1025.119922845744</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1652.717886400351</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2204.627616639638</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925216</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>296.7882229101285</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7643,7 +7643,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7731,13 +7731,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>664.3027814695811</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>516.389687887188</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>369.4997403892776</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -9556,10 +9556,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>106.7437663446525</v>
+        <v>20.46767718315959</v>
       </c>
       <c r="L22" t="n">
         <v>162.4747015415544</v>
@@ -9574,7 +9574,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P22" t="n">
-        <v>15.0942328298074</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23464,7 +23464,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>216.9980364317359</v>
+        <v>115.7150182882721</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>30.51431079503297</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>115.715018288272</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>71.58296229729936</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>115.7150182882721</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>15.3702905376034</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>263.1346551379792</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,13 +24373,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462286</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>73.624177726021</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>40.23897475306246</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>99.26785128071774</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,16 +25078,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.45968844823574</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>73.624177726021</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>186.1428431935229</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.45968844823281</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>40.23897475306786</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,16 +25786,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>110.003342051665</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26029,16 +26029,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>32.8926045706001</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>978103.0862662311</v>
+        <v>978103.0862662318</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>983214.5747883032</v>
+        <v>983214.574788303</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>983214.5747883032</v>
+        <v>983214.5747883031</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>983214.5747883033</v>
+        <v>983214.574788303</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>983214.5747883032</v>
+        <v>983214.574788303</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>983214.5747883032</v>
+        <v>983214.5747883031</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>983214.5747883031</v>
+        <v>983214.574788303</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>983214.5747883032</v>
+        <v>983214.5747883031</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253558</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="C2" t="n">
+        <v>451572.9734253559</v>
+      </c>
+      <c r="D2" t="n">
         <v>451572.973425356</v>
       </c>
-      <c r="D2" t="n">
-        <v>451572.9734253559</v>
-      </c>
       <c r="E2" t="n">
-        <v>430778.896067115</v>
+        <v>430778.8960671149</v>
       </c>
       <c r="F2" t="n">
-        <v>430778.896067115</v>
+        <v>430778.8960671151</v>
       </c>
       <c r="G2" t="n">
         <v>430778.896067115</v>
@@ -26332,25 +26332,25 @@
         <v>442379.2856380832</v>
       </c>
       <c r="I2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="J2" t="n">
         <v>443930.6298295035</v>
       </c>
       <c r="K2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295032</v>
       </c>
       <c r="L2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="M2" t="n">
+        <v>443930.6298295034</v>
+      </c>
+      <c r="N2" t="n">
         <v>443930.6298295033</v>
       </c>
-      <c r="N2" t="n">
-        <v>443930.6298295032</v>
-      </c>
       <c r="O2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="P2" t="n">
         <v>443930.6298295032</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="E4" t="n">
-        <v>761.388208683545</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="F4" t="n">
         <v>761.3882086835451</v>
       </c>
       <c r="G4" t="n">
-        <v>761.3882086835454</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="H4" t="n">
-        <v>13705.58560400927</v>
+        <v>13705.58560400952</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687966</v>
@@ -26448,16 +26448,16 @@
         <v>15436.64000687966</v>
       </c>
       <c r="M4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="O4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="N4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="O4" t="n">
-        <v>15436.64000687973</v>
-      </c>
       <c r="P4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
     </row>
     <row r="5">
@@ -26522,46 +26522,46 @@
         <v>-1078702.456967683</v>
       </c>
       <c r="C6" t="n">
-        <v>250042.2887599099</v>
+        <v>250042.2887599102</v>
       </c>
       <c r="D6" t="n">
-        <v>250042.28875991</v>
+        <v>250042.2887599102</v>
       </c>
       <c r="E6" t="n">
-        <v>3482.516227169239</v>
+        <v>3387.997693722282</v>
       </c>
       <c r="F6" t="n">
-        <v>328894.9780345243</v>
+        <v>328800.4595010779</v>
       </c>
       <c r="G6" t="n">
-        <v>328894.9780345242</v>
+        <v>328800.4595010778</v>
       </c>
       <c r="H6" t="n">
-        <v>327551.170210167</v>
+        <v>327509.3807202245</v>
       </c>
       <c r="I6" t="n">
-        <v>327371.4599987168</v>
+        <v>327336.7220732809</v>
       </c>
       <c r="J6" t="n">
-        <v>109840.2576014393</v>
+        <v>109805.5196760034</v>
       </c>
       <c r="K6" t="n">
-        <v>327371.4599987167</v>
+        <v>327336.7220732807</v>
       </c>
       <c r="L6" t="n">
-        <v>327371.4599987167</v>
+        <v>327336.7220732809</v>
       </c>
       <c r="M6" t="n">
-        <v>242316.4320632047</v>
+        <v>242281.6941377689</v>
       </c>
       <c r="N6" t="n">
-        <v>327371.4599987164</v>
+        <v>327336.7220732808</v>
       </c>
       <c r="O6" t="n">
-        <v>327371.4599987166</v>
+        <v>327336.7220732808</v>
       </c>
       <c r="P6" t="n">
-        <v>327371.4599987164</v>
+        <v>327336.7220732807</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26960,19 +26960,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>290.2444771426681</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>149.5698794939848</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>22.55792903150605</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>34.20913079139243</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>65.75137080161596</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>11.86547352390451</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27828,13 +27828,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>65.47128256061515</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>53.19728360828415</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>306.4732379112239</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>328.3173099230224</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>134.4530526737249</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,16 +28020,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>139.542574919346</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28068,7 +28068,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28959,7 +28959,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -29010,7 +29010,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>-1.487508428269215e-12</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29211,7 +29211,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29478,7 +29478,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-5.621818412198717e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29697,7 +29697,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29973,7 +29973,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
     </row>
     <row r="35">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30405,7 +30405,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,19 +31835,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>506.5665344352332</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,7 +32081,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>210.3948924365567</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,28 +32549,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>284.1014732918236</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O24" t="n">
-        <v>587.1221002143864</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L27" t="n">
-        <v>459.1396705889915</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33260,25 +33260,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>395.1848490935921</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33494,22 +33494,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M33" t="n">
-        <v>281.0363767960755</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O36" t="n">
-        <v>309.9424824173362</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33980,13 +33980,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>414.6448185524877</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,19 +34205,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>250.3097721075164</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,10 +34363,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34451,16 +34451,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597691</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,19 +35483,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>364.4325005132149</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,13 +35741,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453838</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K19" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L19" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M19" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N19" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O19" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P19" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>150.1270658774933</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>178.056499248142</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191314</v>
@@ -36294,7 +36294,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>175.7194428223912</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O24" t="n">
-        <v>444.525855769942</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L27" t="n">
-        <v>320.5852908091173</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36908,25 +36908,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>253.0508151715738</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -36993,7 +36993,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191356</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
         <v>426.2724270010451</v>
@@ -37142,22 +37142,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M33" t="n">
-        <v>138.9023428740572</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O36" t="n">
-        <v>167.3462379728918</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37628,13 +37628,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>272.5107846304694</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096304</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
         <v>394.3420143191314</v>
@@ -37719,7 +37719,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,13 +37874,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>116.3353646931862</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38099,16 +38099,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>132.4173135558164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
